--- a/data/trans_dic/P80_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P80_R-Provincia-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.002702841489171369</v>
+        <v>0.00270284148917137</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.003441104100016069</v>
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0135613512375585</v>
+        <v>0.01526402617106908</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01935169660230099</v>
+        <v>0.01898148501910465</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01004037288510553</v>
+        <v>0.01095522100011458</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002608021363161369</v>
+        <v>0.00258788306239911</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.00483185259060708</v>
+        <v>0.004724808316043936</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005601796854284466</v>
+        <v>0.005742156035267196</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03632820877813982</v>
+        <v>0.03992722383422475</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02104754365973379</v>
+        <v>0.02133406748341666</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02608661696999278</v>
+        <v>0.02541800555694829</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01512721237202868</v>
+        <v>0.01684549327794137</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01037710375775944</v>
+        <v>0.00956845668593162</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01633294111813698</v>
+        <v>0.01707935301438723</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06098728279831814</v>
+        <v>0.05761754738725336</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03844323922465963</v>
+        <v>0.03840283736454782</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.04019607461202786</v>
+        <v>0.04203140389130611</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.001761733874386514</v>
+        <v>0.001773595707784375</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.003386732873565818</v>
+        <v>0.003374817002842393</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.004684919224504052</v>
+        <v>0.004027848564733229</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03057422654096978</v>
+        <v>0.03071970249866979</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02686336063023334</v>
+        <v>0.02614917995527545</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02273262813135416</v>
+        <v>0.02011929096575798</v>
       </c>
     </row>
     <row r="16">
@@ -817,10 +817,10 @@
       </c>
       <c r="C18" s="5" t="inlineStr"/>
       <c r="D18" s="5" t="n">
-        <v>0.02748919186410398</v>
+        <v>0.03042815459994344</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01503811002989662</v>
+        <v>0.01975470711066161</v>
       </c>
     </row>
     <row r="19">
@@ -838,10 +838,10 @@
         <v>0.01092070332817105</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.005910658118325017</v>
+        <v>0.005910658118325015</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.008448286995111257</v>
+        <v>0.008448286995111258</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.00303975094759616</v>
+        <v>0.003039414065858758</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.001342950745560403</v>
+        <v>0.001309432553581952</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.00355801529329625</v>
+        <v>0.003631772791949399</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02542155257156846</v>
+        <v>0.02751507778097765</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01680705518062065</v>
+        <v>0.01611765051441714</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01699846115484463</v>
+        <v>0.01723733709778185</v>
       </c>
     </row>
     <row r="22">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.0373862523602795</v>
+        <v>0.03738625236027949</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.02407168184306961</v>
+        <v>0.0240716818430696</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.03050408419233182</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02115795683692151</v>
+        <v>0.02202190491322909</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01501726642607431</v>
+        <v>0.01521075303657082</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02147454055453509</v>
+        <v>0.02091377039525214</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06285818586231814</v>
+        <v>0.06165706848991668</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03874903644300783</v>
+        <v>0.038160039278057</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04395523221017497</v>
+        <v>0.04520264239419475</v>
       </c>
     </row>
     <row r="25">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.02389434230743291</v>
+        <v>0.02375558969550523</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.009526015403775564</v>
+        <v>0.01035876490485528</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01853472563034636</v>
+        <v>0.01893487855963837</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.05193828210903851</v>
+        <v>0.053155774912453</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02695158190425098</v>
+        <v>0.0275716493739772</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.03673735993348782</v>
+        <v>0.03608140403192951</v>
       </c>
     </row>
     <row r="28">
@@ -1017,13 +1017,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0173654670732716</v>
+        <v>0.01720105046248395</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01123533471323783</v>
+        <v>0.01107604936178827</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.01552988884242722</v>
+        <v>0.01535720644111731</v>
       </c>
     </row>
     <row r="30">
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03042448393576092</v>
+        <v>0.02949355497304706</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01898947263148371</v>
+        <v>0.01921320309891753</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.02279040271801209</v>
+        <v>0.0225069527405774</v>
       </c>
     </row>
     <row r="31">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4324</v>
+        <v>4867</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6116</v>
+        <v>5999</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6375</v>
+        <v>6956</v>
       </c>
     </row>
     <row r="8">
@@ -1258,13 +1258,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1384</v>
+        <v>1373</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2634</v>
+        <v>2576</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6027</v>
+        <v>6178</v>
       </c>
     </row>
     <row r="11">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19277</v>
+        <v>21187</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11475</v>
+        <v>11631</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>28065</v>
+        <v>27345</v>
       </c>
     </row>
     <row r="12">
@@ -1330,13 +1330,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4780</v>
+        <v>5323</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3698</v>
+        <v>3410</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10982</v>
+        <v>11484</v>
       </c>
     </row>
     <row r="15">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19272</v>
+        <v>18207</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13700</v>
+        <v>13686</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>27027</v>
+        <v>28261</v>
       </c>
     </row>
     <row r="16">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3725</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="19">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11409</v>
+        <v>11463</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11335</v>
+        <v>11034</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>18075</v>
+        <v>15997</v>
       </c>
     </row>
     <row r="20">
@@ -1490,10 +1490,10 @@
       </c>
       <c r="C23" s="6" t="inlineStr"/>
       <c r="D23" s="6" t="n">
-        <v>6177</v>
+        <v>6837</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>6461</v>
+        <v>8487</v>
       </c>
     </row>
     <row r="24">
@@ -1545,10 +1545,10 @@
         <v>823</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>1902</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="27">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>6882</v>
+        <v>7449</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>4433</v>
+        <v>4251</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9085</v>
+        <v>9213</v>
       </c>
     </row>
     <row r="28">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>15206</v>
+        <v>15827</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>11548</v>
+        <v>11696</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>31947</v>
+        <v>31112</v>
       </c>
     </row>
     <row r="31">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>45176</v>
+        <v>44313</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>29796</v>
+        <v>29343</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>65390</v>
+        <v>67246</v>
       </c>
     </row>
     <row r="32">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>19043</v>
+        <v>18932</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>7906</v>
+        <v>8597</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>30154</v>
+        <v>30805</v>
       </c>
     </row>
     <row r="35">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>41392</v>
+        <v>42363</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>22369</v>
+        <v>22883</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>59768</v>
+        <v>58701</v>
       </c>
     </row>
     <row r="36">
@@ -1758,13 +1758,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>61299</v>
+        <v>60718</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>41873</v>
+        <v>41280</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>112698</v>
+        <v>111445</v>
       </c>
     </row>
     <row r="39">
@@ -1775,13 +1775,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>107396</v>
+        <v>104110</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>70772</v>
+        <v>71606</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>165387</v>
+        <v>163330</v>
       </c>
     </row>
     <row r="40">
